--- a/data/2015 IP MASTERLIST.xlsx
+++ b/data/2015 IP MASTERLIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A926FF-6A20-47EC-8B16-D5152BC34AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1594F0D0-8051-4AA4-AB94-74BF9DF9F3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="244">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -686,9 +686,6 @@
   </si>
   <si>
     <t>Nutrition Series</t>
-  </si>
-  <si>
-    <t>2015, Semi-Annual</t>
   </si>
   <si>
     <t>2449-4097</t>
@@ -745,9 +742,6 @@
     </r>
   </si>
   <si>
-    <t>Ladilad, Araceli G., Wallat Rimarlyn</t>
-  </si>
-  <si>
     <t>With certificates (filing date May 13, 2015)</t>
   </si>
   <si>
@@ -757,9 +751,6 @@
     <t>Process of Making Loaf Breads Enriched with Vegetables and Rootcrops</t>
   </si>
   <si>
-    <t>Salda, Violeta B., Cristine B. Esnara</t>
-  </si>
-  <si>
     <t>With certificates (filing date 07/12/2015)</t>
   </si>
   <si>
@@ -779,6 +770,18 @@
   </si>
   <si>
     <t>College/Center</t>
+  </si>
+  <si>
+    <t>Starting Date</t>
+  </si>
+  <si>
+    <t>Semi-Annual</t>
+  </si>
+  <si>
+    <t>Araceli G. Ladilad, Wallat Rimarlyn</t>
+  </si>
+  <si>
+    <t>Violeta B. Salda, Cristine B. Esnara</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -999,6 +1002,7 @@
     <xf numFmtId="166" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1224,7 +1228,7 @@
   <dimension ref="A1:J892"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -1243,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1</v>
@@ -4678,7 +4682,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q5" sqref="Q5"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4697,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>1</v>
@@ -5526,7 +5530,7 @@
         <v>148</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10" t="s">
@@ -5633,98 +5637,93 @@
       <c r="E48" s="15"/>
       <c r="G48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="13.2">
+    <row r="49" spans="3:7" ht="13.2">
       <c r="C49" s="38"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
       <c r="G49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="13.2">
+    <row r="50" spans="3:7" ht="13.2">
       <c r="C50" s="38"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
       <c r="G50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="13.2">
+    <row r="51" spans="3:7" ht="13.2">
       <c r="C51" s="38"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
       <c r="G51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="13.2">
+    <row r="52" spans="3:7" ht="13.2">
       <c r="C52" s="38"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
       <c r="G52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="13.2">
+    <row r="53" spans="3:7" ht="13.2">
       <c r="C53" s="38"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
       <c r="G53" s="38"/>
     </row>
-    <row r="54" spans="1:8" ht="13.2">
+    <row r="54" spans="3:7" ht="13.2">
       <c r="C54" s="38"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="G54" s="38"/>
     </row>
-    <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.2">
+    <row r="55" spans="3:7" ht="13.2">
+      <c r="C55" s="38"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="3:7" ht="13.2">
       <c r="C56" s="38"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="G56" s="38"/>
     </row>
-    <row r="57" spans="1:8" ht="13.2">
+    <row r="57" spans="3:7" ht="13.2">
       <c r="C57" s="38"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
       <c r="G57" s="38"/>
     </row>
-    <row r="58" spans="1:8" ht="13.2">
+    <row r="58" spans="3:7" ht="13.2">
       <c r="C58" s="38"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="G58" s="38"/>
     </row>
-    <row r="59" spans="1:8" ht="13.2">
+    <row r="59" spans="3:7" ht="13.2">
       <c r="C59" s="38"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
       <c r="G59" s="38"/>
     </row>
-    <row r="60" spans="1:8" ht="13.2">
+    <row r="60" spans="3:7" ht="13.2">
       <c r="C60" s="38"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="G60" s="38"/>
     </row>
-    <row r="61" spans="1:8" ht="13.2">
+    <row r="61" spans="3:7" ht="13.2">
       <c r="C61" s="38"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.2">
+    </row>
+    <row r="62" spans="3:7" ht="13.2">
       <c r="C62" s="38"/>
       <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.2">
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="3:7" ht="13.2">
       <c r="C63" s="38"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" spans="1:8" ht="13.2">
+    <row r="64" spans="3:7" ht="13.2">
       <c r="C64" s="38"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -5889,87 +5888,82 @@
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
     </row>
-    <row r="97" spans="1:8" ht="13.2">
+    <row r="97" spans="3:5" ht="13.2">
       <c r="C97" s="38"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
     </row>
-    <row r="98" spans="1:8" ht="13.2">
+    <row r="98" spans="3:5" ht="13.2">
       <c r="C98" s="38"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
     </row>
-    <row r="99" spans="1:8" ht="13.2">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.2">
+    <row r="99" spans="3:5" ht="13.2">
+      <c r="C99" s="38"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+    </row>
+    <row r="100" spans="3:5" ht="13.2">
       <c r="C100" s="38"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
     </row>
-    <row r="101" spans="1:8" ht="13.2">
+    <row r="101" spans="3:5" ht="13.2">
       <c r="C101" s="38"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
     </row>
-    <row r="102" spans="1:8" ht="13.2">
+    <row r="102" spans="3:5" ht="13.2">
       <c r="C102" s="38"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
     </row>
-    <row r="103" spans="1:8" ht="13.2">
+    <row r="103" spans="3:5" ht="13.2">
       <c r="C103" s="38"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
     </row>
-    <row r="104" spans="1:8" ht="13.2">
+    <row r="104" spans="3:5" ht="13.2">
       <c r="C104" s="38"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
     </row>
-    <row r="105" spans="1:8" ht="13.2">
+    <row r="105" spans="3:5" ht="13.2">
       <c r="C105" s="38"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
     </row>
-    <row r="106" spans="1:8" ht="13.2">
+    <row r="106" spans="3:5" ht="13.2">
       <c r="C106" s="38"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
     </row>
-    <row r="107" spans="1:8" ht="13.2">
+    <row r="107" spans="3:5" ht="13.2">
       <c r="C107" s="38"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
     </row>
-    <row r="108" spans="1:8" ht="13.2">
+    <row r="108" spans="3:5" ht="13.2">
       <c r="C108" s="38"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
     </row>
-    <row r="109" spans="1:8" ht="13.2">
+    <row r="109" spans="3:5" ht="13.2">
       <c r="C109" s="38"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
     </row>
-    <row r="110" spans="1:8" ht="13.2">
+    <row r="110" spans="3:5" ht="13.2">
       <c r="C110" s="38"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
     </row>
-    <row r="111" spans="1:8" ht="13.2">
+    <row r="111" spans="3:5" ht="13.2">
       <c r="C111" s="38"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
     </row>
-    <row r="112" spans="1:8" ht="13.2">
+    <row r="112" spans="3:5" ht="13.2">
       <c r="C112" s="38"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
@@ -5996,13 +5990,9 @@
     </row>
     <row r="117" spans="3:5" ht="13.2">
       <c r="C117" s="38"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
     </row>
     <row r="118" spans="3:5" ht="13.2">
       <c r="C118" s="38"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
     </row>
     <row r="119" spans="3:5" ht="13.2">
       <c r="C119" s="38"/>
@@ -6028,17 +6018,9 @@
     <row r="126" spans="3:5" ht="13.2">
       <c r="C126" s="38"/>
     </row>
-    <row r="127" spans="3:5" ht="13.2">
-      <c r="C127" s="38"/>
-    </row>
-    <row r="128" spans="3:5" ht="13.2">
-      <c r="C128" s="38"/>
-    </row>
+    <row r="127" spans="3:5" ht="13.2"/>
+    <row r="128" spans="3:5" ht="13.2"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A99:H99"/>
-    <mergeCell ref="A55:H55"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6048,11 +6030,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" activeCellId="1" sqref="I1:I1048576 G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6060,17 +6042,18 @@
     <col min="1" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="33"/>
+    <col min="5" max="6" width="23.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="33"/>
+    <col min="11" max="11" width="12.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.4">
+    <row r="1" spans="1:11" ht="26.4">
       <c r="A1" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -6082,19 +6065,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="K1" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.2">
+    <row r="2" spans="1:11" ht="42.6" customHeight="1">
       <c r="A2" s="12" t="s">
         <v>219</v>
       </c>
@@ -6105,649 +6094,869 @@
       <c r="D2" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14">
+        <v>2015</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="37">
+        <v>42076</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="37">
-        <v>42076</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="37">
+      <c r="K2" s="37">
         <v>42137</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.2"/>
-    <row r="6" spans="1:9" ht="13.2"/>
-    <row r="7" spans="1:9" ht="13.2"/>
-    <row r="8" spans="1:9" ht="13.2"/>
-    <row r="9" spans="1:9" ht="13.2"/>
-    <row r="10" spans="1:9" ht="13.2"/>
-    <row r="11" spans="1:9" ht="13.2">
+    <row r="3" spans="1:11" ht="13.2"/>
+    <row r="6" spans="1:11" ht="13.2"/>
+    <row r="7" spans="1:11" ht="13.2"/>
+    <row r="8" spans="1:11" ht="13.2"/>
+    <row r="9" spans="1:11" ht="13.2"/>
+    <row r="10" spans="1:11" ht="13.2"/>
+    <row r="11" spans="1:11" ht="13.2">
       <c r="C11" s="16"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="G11" s="38"/>
-    </row>
-    <row r="12" spans="1:9" ht="13.2">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:11" ht="13.2">
       <c r="C12" s="16"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="G12" s="38"/>
-    </row>
-    <row r="13" spans="1:9" ht="13.2">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" ht="13.2">
       <c r="C13" s="16"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="G13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" ht="13.2">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="13.2">
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
-      <c r="G14" s="38"/>
-    </row>
-    <row r="15" spans="1:9" ht="13.2">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="13.2">
       <c r="C15" s="16"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="G15" s="38"/>
-    </row>
-    <row r="16" spans="1:9" ht="13.2">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="I15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="13.2">
       <c r="C16" s="16"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="17" spans="3:7" ht="13.2">
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="I16" s="38"/>
+    </row>
+    <row r="17" spans="3:9" ht="13.2">
       <c r="C17" s="16"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="18" spans="3:7" ht="13.2">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="I17" s="38"/>
+    </row>
+    <row r="18" spans="3:9" ht="13.2">
       <c r="C18" s="16"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="3:7" ht="13.2">
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="3:9" ht="13.2">
       <c r="C19" s="16"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="3:7" ht="13.2">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="3:9" ht="13.2">
       <c r="C20" s="16"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="3:7" ht="13.2">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="3:9" ht="13.2">
       <c r="C21" s="16"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="G21" s="38"/>
-    </row>
-    <row r="22" spans="3:7" ht="13.2">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="I21" s="38"/>
+    </row>
+    <row r="22" spans="3:9" ht="13.2">
       <c r="C22" s="16"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="23" spans="3:7" ht="13.2">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="3:9" ht="13.2">
       <c r="C23" s="16"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="3:7" ht="13.2">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="I23" s="38"/>
+    </row>
+    <row r="24" spans="3:9" ht="13.2">
       <c r="C24" s="16"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="3:7" ht="13.2">
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="3:9" ht="13.2">
       <c r="C25" s="16"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="3:7" ht="13.2">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="3:9" ht="13.2">
       <c r="C26" s="16"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="3:7" ht="13.2">
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="3:9" ht="13.2">
       <c r="C27" s="16"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="3:7" ht="13.2">
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="3:9" ht="13.2">
       <c r="C28" s="16"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="3:7" ht="13.2">
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="3:9" ht="13.2">
       <c r="C29" s="16"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="3:7" ht="13.2">
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+    </row>
+    <row r="30" spans="3:9" ht="13.2">
       <c r="C30" s="16"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="3:7" ht="13.2">
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="3:9" ht="13.2">
       <c r="C31" s="16"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="3:7" ht="13.2">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="3:9" ht="13.2">
       <c r="C32" s="16"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="3:7" ht="13.2">
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="3:9" ht="13.2">
       <c r="C33" s="16"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="3:7" ht="13.2">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+    </row>
+    <row r="34" spans="3:9" ht="13.2">
       <c r="C34" s="16"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
-      <c r="G34" s="38"/>
-    </row>
-    <row r="35" spans="3:7" ht="13.2">
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="I34" s="38"/>
+    </row>
+    <row r="35" spans="3:9" ht="13.2">
       <c r="C35" s="16"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="3:7" ht="13.2">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="I35" s="38"/>
+    </row>
+    <row r="36" spans="3:9" ht="13.2">
       <c r="C36" s="16"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="G36" s="39"/>
-    </row>
-    <row r="37" spans="3:7" ht="13.2">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="I36" s="39"/>
+    </row>
+    <row r="37" spans="3:9" ht="13.2">
       <c r="C37" s="16"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="G37" s="38"/>
-    </row>
-    <row r="38" spans="3:7" ht="13.2">
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="I37" s="38"/>
+    </row>
+    <row r="38" spans="3:9" ht="13.2">
       <c r="C38" s="16"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="G38" s="38"/>
-    </row>
-    <row r="39" spans="3:7" ht="13.2">
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="I38" s="38"/>
+    </row>
+    <row r="39" spans="3:9" ht="13.2">
       <c r="C39" s="16"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="G39" s="38"/>
-    </row>
-    <row r="40" spans="3:7" ht="13.2">
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="I39" s="38"/>
+    </row>
+    <row r="40" spans="3:9" ht="13.2">
       <c r="C40" s="16"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="3:7" ht="13.2">
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="I40" s="38"/>
+    </row>
+    <row r="41" spans="3:9" ht="13.2">
       <c r="C41" s="16"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="42" spans="3:7" ht="13.2">
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="38"/>
+    </row>
+    <row r="42" spans="3:9" ht="13.2">
       <c r="C42" s="16"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="G42" s="38"/>
-    </row>
-    <row r="43" spans="3:7" ht="13.2">
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="I42" s="38"/>
+    </row>
+    <row r="43" spans="3:9" ht="13.2">
       <c r="C43" s="16"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="3:7" ht="13.2">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="3:9" ht="13.2">
       <c r="C44" s="16"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="G44" s="38"/>
-    </row>
-    <row r="45" spans="3:7" ht="13.2">
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="I44" s="38"/>
+    </row>
+    <row r="45" spans="3:9" ht="13.2">
       <c r="C45" s="16"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="G45" s="38"/>
-    </row>
-    <row r="46" spans="3:7" ht="13.2">
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="I45" s="38"/>
+    </row>
+    <row r="46" spans="3:9" ht="13.2">
       <c r="C46" s="16"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="G46" s="38"/>
-    </row>
-    <row r="47" spans="3:7" ht="13.2">
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="I46" s="38"/>
+    </row>
+    <row r="47" spans="3:9" ht="13.2">
       <c r="C47" s="16"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="G47" s="38"/>
-    </row>
-    <row r="48" spans="3:7" ht="13.2">
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="3:9" ht="13.2">
       <c r="C48" s="16"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="G48" s="38"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.2">
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="I48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" ht="13.2">
       <c r="C49" s="16"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="G49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.2">
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="I49" s="38"/>
+    </row>
+    <row r="50" spans="1:10" ht="13.2">
       <c r="C50" s="16"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="G50" s="38"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.2">
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="I50" s="38"/>
+    </row>
+    <row r="51" spans="1:10" ht="13.2">
       <c r="C51" s="16"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.2">
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="I51" s="38"/>
+    </row>
+    <row r="52" spans="1:10" ht="13.2">
       <c r="C52" s="16"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.2">
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="I52" s="38"/>
+    </row>
+    <row r="53" spans="1:10" ht="13.2">
       <c r="C53" s="16"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="G53" s="38"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.2">
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:10" ht="13.2">
       <c r="C54" s="16"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.2">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.2">
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:10" ht="13.2">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+    </row>
+    <row r="56" spans="1:10" ht="13.2">
       <c r="C56" s="16"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="G56" s="38"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.2">
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="I56" s="38"/>
+    </row>
+    <row r="57" spans="1:10" ht="13.2">
       <c r="C57" s="16"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="G57" s="38"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.2">
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="I57" s="38"/>
+    </row>
+    <row r="58" spans="1:10" ht="13.2">
       <c r="C58" s="16"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="G58" s="38"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.2">
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="I58" s="38"/>
+    </row>
+    <row r="59" spans="1:10" ht="13.2">
       <c r="C59" s="16"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="G59" s="38"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.2">
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="I59" s="38"/>
+    </row>
+    <row r="60" spans="1:10" ht="13.2">
       <c r="C60" s="16"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="G60" s="38"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.2">
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="I60" s="38"/>
+    </row>
+    <row r="61" spans="1:10" ht="13.2">
       <c r="C61" s="16"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="G61" s="38"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.2">
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="I61" s="38"/>
+    </row>
+    <row r="62" spans="1:10" ht="13.2">
       <c r="C62" s="16"/>
       <c r="D62" s="15"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.2">
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:10" ht="13.2">
       <c r="C63" s="16"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.2">
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+    </row>
+    <row r="64" spans="1:10" ht="13.2">
       <c r="C64" s="16"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-    </row>
-    <row r="65" spans="3:5" ht="13.2">
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="3:7" ht="13.2">
       <c r="C65" s="16"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-    </row>
-    <row r="66" spans="3:5" ht="13.2">
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="3:7" ht="13.2">
       <c r="C66" s="16"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-    </row>
-    <row r="67" spans="3:5" ht="13.2">
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="3:7" ht="13.2">
       <c r="C67" s="16"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-    </row>
-    <row r="68" spans="3:5" ht="13.2">
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="3:7" ht="13.2">
       <c r="C68" s="16"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-    </row>
-    <row r="69" spans="3:5" ht="13.2">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="3:7" ht="13.2">
       <c r="C69" s="16"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-    </row>
-    <row r="70" spans="3:5" ht="13.2">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="3:7" ht="13.2">
       <c r="C70" s="16"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-    </row>
-    <row r="71" spans="3:5" ht="13.2">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="3:7" ht="13.2">
       <c r="C71" s="16"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-    </row>
-    <row r="72" spans="3:5" ht="13.2">
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="3:7" ht="13.2">
       <c r="C72" s="16"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-    </row>
-    <row r="73" spans="3:5" ht="13.2">
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="3:7" ht="13.2">
       <c r="C73" s="16"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-    </row>
-    <row r="74" spans="3:5" ht="13.2">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="3:7" ht="13.2">
       <c r="C74" s="16"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-    </row>
-    <row r="75" spans="3:5" ht="13.2">
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="3:7" ht="13.2">
       <c r="C75" s="16"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-    </row>
-    <row r="76" spans="3:5" ht="13.2">
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+    </row>
+    <row r="76" spans="3:7" ht="13.2">
       <c r="C76" s="16"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-    </row>
-    <row r="77" spans="3:5" ht="13.2">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+    </row>
+    <row r="77" spans="3:7" ht="13.2">
       <c r="C77" s="16"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-    </row>
-    <row r="78" spans="3:5" ht="13.2">
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+    </row>
+    <row r="78" spans="3:7" ht="13.2">
       <c r="C78" s="16"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-    </row>
-    <row r="79" spans="3:5" ht="13.2">
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+    </row>
+    <row r="79" spans="3:7" ht="13.2">
       <c r="C79" s="16"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-    </row>
-    <row r="80" spans="3:5" ht="13.2">
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="3:7" ht="13.2">
       <c r="C80" s="16"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-    </row>
-    <row r="81" spans="3:5" ht="13.2">
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="3:7" ht="13.2">
       <c r="C81" s="16"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-    </row>
-    <row r="82" spans="3:5" ht="13.2">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+    </row>
+    <row r="82" spans="3:7" ht="13.2">
       <c r="C82" s="16"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-    </row>
-    <row r="83" spans="3:5" ht="13.2">
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+    </row>
+    <row r="83" spans="3:7" ht="13.2">
       <c r="C83" s="16"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-    </row>
-    <row r="84" spans="3:5" ht="13.2">
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+    </row>
+    <row r="84" spans="3:7" ht="13.2">
       <c r="C84" s="21"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-    </row>
-    <row r="85" spans="3:5" ht="13.2">
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+    </row>
+    <row r="85" spans="3:7" ht="13.2">
       <c r="C85" s="18"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-    </row>
-    <row r="86" spans="3:5" ht="13.2">
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+    </row>
+    <row r="86" spans="3:7" ht="13.2">
       <c r="C86" s="18"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-    </row>
-    <row r="87" spans="3:5" ht="13.2">
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+    </row>
+    <row r="87" spans="3:7" ht="13.2">
       <c r="C87" s="18"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="3:5" ht="13.2">
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+    </row>
+    <row r="88" spans="3:7" ht="13.2">
       <c r="C88" s="18"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-    </row>
-    <row r="89" spans="3:5" ht="13.2">
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="3:7" ht="13.2">
       <c r="C89" s="18"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-    </row>
-    <row r="90" spans="3:5" ht="13.2">
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+    </row>
+    <row r="90" spans="3:7" ht="13.2">
       <c r="C90" s="18"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-    </row>
-    <row r="91" spans="3:5" ht="13.2">
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+    </row>
+    <row r="91" spans="3:7" ht="13.2">
       <c r="C91" s="18"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="3:5" ht="13.2">
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+    </row>
+    <row r="92" spans="3:7" ht="13.2">
       <c r="C92" s="18"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-    </row>
-    <row r="93" spans="3:5" ht="13.2">
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="3:7" ht="13.2">
       <c r="C93" s="18"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="3:5" ht="13.2">
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+    </row>
+    <row r="94" spans="3:7" ht="13.2">
       <c r="C94" s="18"/>
       <c r="D94" s="15"/>
       <c r="E94" s="15"/>
-    </row>
-    <row r="95" spans="3:5" ht="13.2">
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+    </row>
+    <row r="95" spans="3:7" ht="13.2">
       <c r="C95" s="18"/>
       <c r="D95" s="15"/>
       <c r="E95" s="15"/>
-    </row>
-    <row r="96" spans="3:5" ht="13.2">
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+    </row>
+    <row r="96" spans="3:7" ht="13.2">
       <c r="C96" s="18"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15"/>
-    </row>
-    <row r="97" spans="1:8" ht="13.2">
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+    </row>
+    <row r="97" spans="1:10" ht="13.2">
       <c r="C97" s="18"/>
       <c r="D97" s="15"/>
       <c r="E97" s="15"/>
-    </row>
-    <row r="98" spans="1:8" ht="13.2">
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:10" ht="13.2">
       <c r="C98" s="18"/>
       <c r="D98" s="15"/>
       <c r="E98" s="15"/>
-    </row>
-    <row r="99" spans="1:8" ht="13.2">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
-      <c r="C99" s="41"/>
-      <c r="D99" s="41"/>
-      <c r="E99" s="41"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:8" ht="13.2">
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+    </row>
+    <row r="99" spans="1:10" ht="13.2">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+    </row>
+    <row r="100" spans="1:10" ht="13.2">
       <c r="C100" s="18"/>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
-    </row>
-    <row r="101" spans="1:8" ht="13.2">
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+    </row>
+    <row r="101" spans="1:10" ht="13.2">
       <c r="C101" s="18"/>
       <c r="D101" s="15"/>
       <c r="E101" s="15"/>
-    </row>
-    <row r="102" spans="1:8" ht="13.2">
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+    </row>
+    <row r="102" spans="1:10" ht="13.2">
       <c r="C102" s="18"/>
       <c r="D102" s="15"/>
       <c r="E102" s="15"/>
-    </row>
-    <row r="103" spans="1:8" ht="13.2">
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+    </row>
+    <row r="103" spans="1:10" ht="13.2">
       <c r="C103" s="18"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
-    </row>
-    <row r="104" spans="1:8" ht="13.2">
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+    </row>
+    <row r="104" spans="1:10" ht="13.2">
       <c r="C104" s="18"/>
       <c r="D104" s="15"/>
       <c r="E104" s="15"/>
-    </row>
-    <row r="105" spans="1:8" ht="13.2">
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+    </row>
+    <row r="105" spans="1:10" ht="13.2">
       <c r="C105" s="18"/>
       <c r="D105" s="15"/>
       <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:8" ht="13.2">
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+    </row>
+    <row r="106" spans="1:10" ht="13.2">
       <c r="C106" s="18"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15"/>
-    </row>
-    <row r="107" spans="1:8" ht="13.2">
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:10" ht="13.2">
       <c r="C107" s="18"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15"/>
-    </row>
-    <row r="108" spans="1:8" ht="13.2">
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+    </row>
+    <row r="108" spans="1:10" ht="13.2">
       <c r="C108" s="18"/>
       <c r="D108" s="15"/>
       <c r="E108" s="15"/>
-    </row>
-    <row r="109" spans="1:8" ht="13.2">
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+    </row>
+    <row r="109" spans="1:10" ht="13.2">
       <c r="C109" s="18"/>
       <c r="D109" s="15"/>
       <c r="E109" s="15"/>
-    </row>
-    <row r="110" spans="1:8" ht="13.2">
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+    </row>
+    <row r="110" spans="1:10" ht="13.2">
       <c r="C110" s="18"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15"/>
-    </row>
-    <row r="111" spans="1:8" ht="13.2">
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+    </row>
+    <row r="111" spans="1:10" ht="13.2">
       <c r="C111" s="18"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:8" ht="13.2">
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+    </row>
+    <row r="112" spans="1:10" ht="13.2">
       <c r="C112" s="18"/>
       <c r="D112" s="15"/>
       <c r="E112" s="15"/>
-    </row>
-    <row r="113" spans="3:5" ht="13.2">
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+    </row>
+    <row r="113" spans="3:7" ht="13.2">
       <c r="C113" s="18"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15"/>
-    </row>
-    <row r="114" spans="3:5" ht="13.2">
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+    </row>
+    <row r="114" spans="3:7" ht="13.2">
       <c r="C114" s="18"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15"/>
-    </row>
-    <row r="115" spans="3:5" ht="13.2">
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+    </row>
+    <row r="115" spans="3:7" ht="13.2">
       <c r="C115" s="18"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15"/>
-    </row>
-    <row r="116" spans="3:5" ht="13.2">
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+    </row>
+    <row r="116" spans="3:7" ht="13.2">
       <c r="C116" s="18"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15"/>
-    </row>
-    <row r="117" spans="3:5" ht="13.2">
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+    </row>
+    <row r="117" spans="3:7" ht="13.2">
       <c r="C117" s="18"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15"/>
-    </row>
-    <row r="118" spans="3:5" ht="13.2">
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+    </row>
+    <row r="118" spans="3:7" ht="13.2">
       <c r="C118" s="18"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15"/>
-    </row>
-    <row r="119" spans="3:5" ht="13.2">
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+    </row>
+    <row r="119" spans="3:7" ht="13.2">
       <c r="C119" s="18"/>
     </row>
-    <row r="120" spans="3:5" ht="13.2">
+    <row r="120" spans="3:7" ht="13.2">
       <c r="C120" s="18"/>
     </row>
-    <row r="121" spans="3:5" ht="13.2">
+    <row r="121" spans="3:7" ht="13.2">
       <c r="C121" s="18"/>
     </row>
-    <row r="122" spans="3:5" ht="13.2">
+    <row r="122" spans="3:7" ht="13.2">
       <c r="C122" s="18"/>
     </row>
-    <row r="123" spans="3:5" ht="13.2">
+    <row r="123" spans="3:7" ht="13.2">
       <c r="C123" s="18"/>
     </row>
-    <row r="124" spans="3:5" ht="13.2">
+    <row r="124" spans="3:7" ht="13.2">
       <c r="C124" s="18"/>
     </row>
-    <row r="125" spans="3:5" ht="13.2">
+    <row r="125" spans="3:7" ht="13.2">
       <c r="C125" s="18"/>
     </row>
-    <row r="126" spans="3:5" ht="13.2">
+    <row r="126" spans="3:7" ht="13.2">
       <c r="C126" s="18"/>
     </row>
-    <row r="127" spans="3:5" ht="13.2">
+    <row r="127" spans="3:7" ht="13.2">
       <c r="C127" s="18"/>
     </row>
-    <row r="128" spans="3:5" ht="13.2">
+    <row r="128" spans="3:7" ht="13.2">
       <c r="C128" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A99:H99"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="A99:J99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6762,7 +6971,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6782,7 +6991,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>3</v>
@@ -6794,99 +7003,99 @@
         <v>5</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>227</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D2" s="27">
         <v>22015000231</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L2" s="17"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="27">
         <v>22015000728</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L3" s="17"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="24" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>113</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D4" s="27">
         <v>22015000731</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="29"/>
       <c r="J4" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="L4" s="17"/>
     </row>
